--- a/reconstruction-tools-assessment/supplementary material/S5_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S5_table.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8E3815-3892-4529-AE0F-4FAC71213A32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="3468" yWindow="312" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S5 Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -163,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -600,25 +606,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>0.65885516711486747</v>
+        <v>0.64951644100580297</v>
       </c>
       <c r="C4" s="6">
-        <v>0.53441295546558698</v>
+        <v>0.51726155646576899</v>
       </c>
       <c r="D4" s="6">
-        <v>0.48791018998272884</v>
+        <v>0.487910189982729</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E30" si="0">B4-C4</f>
-        <v>0.12444221164928049</v>
+        <v>0.13225488454003398</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F30" si="1">C4-D4</f>
-        <v>4.6502765482858144E-2</v>
+        <v>2.9351366483039987E-2</v>
       </c>
       <c r="G4" s="6">
         <f>B4-D4</f>
-        <v>0.17094497713213863</v>
+        <v>0.16160625102307397</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -626,25 +632,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>0.65620155038759687</v>
+        <v>0.64676034348165501</v>
       </c>
       <c r="C5" s="6">
-        <v>0.53356481481481488</v>
+        <v>0.51639344262295095</v>
       </c>
       <c r="D5" s="6">
-        <v>0.48700173310225303</v>
+        <v>0.48700173310225298</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>0.12263673557278199</v>
+        <v>0.13036690085870406</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>4.6563081712561849E-2</v>
+        <v>2.9391709520697973E-2</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" ref="G5:G29" si="2">B5-D5</f>
-        <v>0.16919981728534383</v>
+        <v>0.15975861037940203</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -652,25 +658,25 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>0.67263056092843332</v>
+        <v>0.66908563134978205</v>
       </c>
       <c r="C6" s="6">
-        <v>0.54207317073170724</v>
+        <v>0.53667481662591698</v>
       </c>
       <c r="D6" s="6">
-        <v>0.44578313253012047</v>
+        <v>0.44153005464480899</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>0.13055739019672608</v>
+        <v>0.13241081472386507</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>9.629003820158677E-2</v>
+        <v>9.5144761981107995E-2</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="2"/>
-        <v>0.22684742839831284</v>
+        <v>0.22755557670497306</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -678,25 +684,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>0.72392903504976203</v>
+        <v>0.68548039638086999</v>
       </c>
       <c r="C7" s="6">
-        <v>0.57590233545647562</v>
+        <v>0.553968253968254</v>
       </c>
       <c r="D7" s="6">
-        <v>0.44499999999999995</v>
+        <v>0.434223541048467</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>0.1480266995932864</v>
+        <v>0.131512142412616</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>0.13090233545647567</v>
+        <v>0.119744712919787</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>0.27892903504976208</v>
+        <v>0.251256855332403</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -704,25 +710,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>0.72467532467532469</v>
+        <v>0.70083333333333298</v>
       </c>
       <c r="C8" s="6">
-        <v>0.57506631299734745</v>
+        <v>0.56008251676121701</v>
       </c>
       <c r="D8" s="6">
-        <v>0.44844844844844844</v>
+        <v>0.434108527131783</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>0.14960901167797724</v>
+        <v>0.14075081657211597</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>0.12661786454889901</v>
+        <v>0.12597398962943401</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>0.27622687622687625</v>
+        <v>0.26672480620154998</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -730,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>0.68235877106045595</v>
+        <v>0.68105158730158699</v>
       </c>
       <c r="C9" s="6">
-        <v>0.54174757281553398</v>
+        <v>0.53891050583657596</v>
       </c>
       <c r="D9" s="6">
-        <v>0.49306296691568841</v>
+        <v>0.49306296691568802</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>0.14061119824492196</v>
+        <v>0.14214108146501103</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>4.8684605899845579E-2</v>
+        <v>4.5847538920887942E-2</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>0.18929580414476754</v>
+        <v>0.18798862038589897</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -756,25 +762,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>0.87737771739130432</v>
+        <v>0.86853817185895199</v>
       </c>
       <c r="C10" s="6">
-        <v>0.80646448523543501</v>
+        <v>0.79839357429718905</v>
       </c>
       <c r="D10" s="6">
-        <v>0.55908639523336645</v>
+        <v>0.55908639523336701</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>7.091323215586931E-2</v>
+        <v>7.0144597561762945E-2</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>0.24737809000206856</v>
+        <v>0.23930717906382204</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>0.31829132215793787</v>
+        <v>0.30945177662558498</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -782,25 +788,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>0.88399366085578446</v>
+        <v>0.87579821200510899</v>
       </c>
       <c r="C11" s="6">
-        <v>0.81521739130434789</v>
+        <v>0.80769230769230804</v>
       </c>
       <c r="D11" s="6">
-        <v>0.55908639523336645</v>
+        <v>0.55908639523336701</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>6.8776269551436564E-2</v>
+        <v>6.8105904312800947E-2</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>0.25613099607098144</v>
+        <v>0.24860591245894104</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>0.32490726562241801</v>
+        <v>0.31671181677174198</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -808,25 +814,25 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>0.87638839125761381</v>
+        <v>0.86827859978347199</v>
       </c>
       <c r="C12" s="6">
-        <v>0.80494845360824741</v>
+        <v>0.79609634551495001</v>
       </c>
       <c r="D12" s="6">
-        <v>0.55908639523336645</v>
+        <v>0.55908639523336701</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>7.1439937649366403E-2</v>
+        <v>7.2182254268521984E-2</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.24586205837488095</v>
+        <v>0.237009950281583</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="2"/>
-        <v>0.31730199602424736</v>
+        <v>0.30919220455010499</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -834,25 +840,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>0.87824497257769651</v>
+        <v>0.87081339712918704</v>
       </c>
       <c r="C13" s="6">
-        <v>0.80475594493116398</v>
+        <v>0.79478553406223695</v>
       </c>
       <c r="D13" s="6">
-        <v>0.55908639523336645</v>
+        <v>0.55908639523336701</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>7.3489027646532534E-2</v>
+        <v>7.6027863066950085E-2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>0.24566954969779753</v>
+        <v>0.23569913882886995</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>0.31915857734433006</v>
+        <v>0.31172700189582003</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -860,25 +866,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <v>0.87737771739130432</v>
+        <v>0.86853817185895199</v>
       </c>
       <c r="C14" s="6">
-        <v>0.80646448523543501</v>
+        <v>0.79839357429718905</v>
       </c>
       <c r="D14" s="6">
-        <v>0.55908639523336645</v>
+        <v>0.55908639523336701</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>7.091323215586931E-2</v>
+        <v>7.0144597561762945E-2</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>0.24737809000206856</v>
+        <v>0.23930717906382204</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="2"/>
-        <v>0.31829132215793787</v>
+        <v>0.30945177662558498</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -886,25 +892,25 @@
         <v>15</v>
       </c>
       <c r="B15" s="6">
-        <v>0.88176583493282146</v>
+        <v>0.87875288683602804</v>
       </c>
       <c r="C15" s="6">
-        <v>0.74893817838603116</v>
+        <v>0.73941987636709505</v>
       </c>
       <c r="D15" s="6">
         <v>0.55129434324065196</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>0.1328276565467903</v>
+        <v>0.13933301046893298</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>0.1976438351453792</v>
+        <v>0.18812553312644309</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="2"/>
-        <v>0.33047149169216949</v>
+        <v>0.32745854359537607</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -912,25 +918,25 @@
         <v>16</v>
       </c>
       <c r="B16" s="6">
-        <v>0.88176583493282146</v>
+        <v>0.87875288683602804</v>
       </c>
       <c r="C16" s="6">
-        <v>0.74893817838603116</v>
+        <v>0.73941987636709505</v>
       </c>
       <c r="D16" s="6">
         <v>0.55129434324065196</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>0.1328276565467903</v>
+        <v>0.13933301046893298</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>0.1976438351453792</v>
+        <v>0.18812553312644309</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="2"/>
-        <v>0.33047149169216949</v>
+        <v>0.32745854359537607</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -938,25 +944,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="6">
-        <v>0.88315217391304346</v>
+        <v>0.88184998056743102</v>
       </c>
       <c r="C17" s="6">
-        <v>0.75896226415094337</v>
+        <v>0.75071225071225101</v>
       </c>
       <c r="D17" s="6">
-        <v>0.55404178019981831</v>
+        <v>0.55404178019981798</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>0.12418990976210009</v>
+        <v>0.13113772985518002</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>0.20492048395112505</v>
+        <v>0.19667047051243303</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>0.32911039371322515</v>
+        <v>0.32780820036761305</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -964,25 +970,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <v>0.8829910887253003</v>
+        <v>0.88169123351435197</v>
       </c>
       <c r="C18" s="6">
-        <v>0.75871819038642796</v>
+        <v>0.75047438330170801</v>
       </c>
       <c r="D18" s="6">
-        <v>0.55525362318840576</v>
+        <v>0.55525362318840599</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>0.12427289833887234</v>
+        <v>0.13121685021264395</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>0.20346456719802219</v>
+        <v>0.19522076011330203</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="2"/>
-        <v>0.32773746553689453</v>
+        <v>0.32643761032594598</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -990,25 +996,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="6">
-        <v>0.88487229862475436</v>
+        <v>0.88399528116397996</v>
       </c>
       <c r="C19" s="6">
-        <v>0.75493500240731826</v>
+        <v>0.74709302325581395</v>
       </c>
       <c r="D19" s="6">
-        <v>0.55636363636363639</v>
+        <v>0.55636363636363595</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>0.1299372962174361</v>
+        <v>0.13690225790816601</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>0.19857136604368186</v>
+        <v>0.190729386892178</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>0.32850866226111797</v>
+        <v>0.32763164480034401</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1016,25 +1022,25 @@
         <v>20</v>
       </c>
       <c r="B20" s="6">
-        <v>0.8869402985074627</v>
+        <v>0.88569293985804998</v>
       </c>
       <c r="C20" s="6">
-        <v>0.7675675675675675</v>
+        <v>0.75918367346938798</v>
       </c>
       <c r="D20" s="6">
-        <v>0.55212677231025853</v>
+        <v>0.55212677231025897</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>0.1193727309398952</v>
+        <v>0.126509266388662</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>0.21544079525730897</v>
+        <v>0.207056901159129</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="2"/>
-        <v>0.33481352619720417</v>
+        <v>0.333566167547791</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1042,25 +1048,25 @@
         <v>21</v>
       </c>
       <c r="B21" s="6">
-        <v>0.88681359731042209</v>
+        <v>0.88556469708302199</v>
       </c>
       <c r="C21" s="6">
-        <v>0.76680198466396032</v>
+        <v>0.75840145322434205</v>
       </c>
       <c r="D21" s="6">
-        <v>0.55379482902418675</v>
+        <v>0.55379482902418697</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>0.12001161264646176</v>
+        <v>0.12716324385867994</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>0.21300715563977357</v>
+        <v>0.20460662420015507</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>0.33301876828623533</v>
+        <v>0.33176986805883502</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1068,25 +1074,25 @@
         <v>22</v>
       </c>
       <c r="B22" s="6">
-        <v>0.88497919031403705</v>
+        <v>0.88413479742521806</v>
       </c>
       <c r="C22" s="6">
-        <v>0.76140027637033625</v>
+        <v>0.753361149745016</v>
       </c>
       <c r="D22" s="6">
-        <v>0.55029093931837081</v>
+        <v>0.55029093931837103</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>0.1235789139437008</v>
+        <v>0.13077364768020205</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>0.21110933705196544</v>
+        <v>0.20307021042664497</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="2"/>
-        <v>0.33468825099566624</v>
+        <v>0.33384385810684702</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1094,25 +1100,25 @@
         <v>23</v>
       </c>
       <c r="B23" s="6">
-        <v>0.87754218952834273</v>
+        <v>0.87070091423595997</v>
       </c>
       <c r="C23" s="6">
-        <v>0.79905437352245867</v>
+        <v>0.78942353501667495</v>
       </c>
       <c r="D23" s="6">
-        <v>0.58310991957104563</v>
+        <v>0.58310991957104596</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>7.8487816005884059E-2</v>
+        <v>8.1277379219285018E-2</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>0.21594445395141304</v>
+        <v>0.20631361544562898</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
-        <v>0.2944322699572971</v>
+        <v>0.287590994664914</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1120,25 +1126,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="6">
-        <v>0.87852865697177074</v>
+        <v>0.87177280550774505</v>
       </c>
       <c r="C24" s="6">
-        <v>0.80139534883720931</v>
+        <v>0.79194001874414199</v>
       </c>
       <c r="D24" s="6">
-        <v>0.58289817232375984</v>
+        <v>0.58289817232375996</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>7.7133308134561429E-2</v>
+        <v>7.9832786763603059E-2</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>0.21849717651344946</v>
+        <v>0.20904184642038204</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="2"/>
-        <v>0.29563048464801089</v>
+        <v>0.2888746331839851</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1146,25 +1152,25 @@
         <v>25</v>
       </c>
       <c r="B25" s="6">
-        <v>0.87876144788486699</v>
+        <v>0.87187362878455499</v>
       </c>
       <c r="C25" s="6">
-        <v>0.79914122137404586</v>
+        <v>0.78884078884078901</v>
       </c>
       <c r="D25" s="6">
-        <v>0.58155540261527872</v>
+        <v>0.58155540261527905</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>7.9620226510821124E-2</v>
+        <v>8.3032839943765979E-2</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>0.21758581875876715</v>
+        <v>0.20728538622550996</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>0.29720604526958827</v>
+        <v>0.29031822616927594</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1172,25 +1178,25 @@
         <v>26</v>
       </c>
       <c r="B26" s="6">
-        <v>0.87413554633471646</v>
+        <v>0.86734693877550995</v>
       </c>
       <c r="C26" s="6">
-        <v>0.78404971517348521</v>
+        <v>0.77528675703858196</v>
       </c>
       <c r="D26" s="6">
-        <v>0.57097032878909382</v>
+        <v>0.57097032878909404</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>9.0085831161231256E-2</v>
+        <v>9.2060181736927982E-2</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>0.21307938638439139</v>
+        <v>0.20431642824948792</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="2"/>
-        <v>0.30316521754562265</v>
+        <v>0.29637660998641591</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1198,25 +1204,25 @@
         <v>27</v>
       </c>
       <c r="B27" s="6">
-        <v>0.87586206896551722</v>
+        <v>0.86903729401561203</v>
       </c>
       <c r="C27" s="6">
-        <v>0.7970740915526191</v>
+        <v>0.78802281368821303</v>
       </c>
       <c r="D27" s="6">
-        <v>0.58404746209624259</v>
+        <v>0.58404746209624303</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>7.8787977412898114E-2</v>
+        <v>8.1014480327398997E-2</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="1"/>
-        <v>0.21302662945637652</v>
+        <v>0.20397535159197</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="2"/>
-        <v>0.29181460686927463</v>
+        <v>0.284989831919369</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1224,25 +1230,25 @@
         <v>28</v>
       </c>
       <c r="B28" s="6">
-        <v>0.8758939840134623</v>
+        <v>0.87494736842105303</v>
       </c>
       <c r="C28" s="6">
-        <v>0.73421052631578942</v>
+        <v>0.72616525423728795</v>
       </c>
       <c r="D28" s="6">
-        <v>0.51903807615230457</v>
+        <v>0.51903807615230502</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>0.14168345769767288</v>
+        <v>0.14878211418376508</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>0.21517245016348485</v>
+        <v>0.20712717808498293</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="2"/>
-        <v>0.35685590786115773</v>
+        <v>0.35590929226874801</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1250,25 +1256,25 @@
         <v>29</v>
       </c>
       <c r="B29" s="6">
-        <v>0.90711838599162542</v>
+        <v>0.90670220868240703</v>
       </c>
       <c r="C29" s="6">
-        <v>0.79141370338248052</v>
+        <v>0.78614982578397197</v>
       </c>
       <c r="D29" s="6">
-        <v>0.66754155730533682</v>
+        <v>0.66754155730533704</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>0.1157046826091449</v>
+        <v>0.12055238289843506</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="1"/>
-        <v>0.1238721460771437</v>
+        <v>0.11860826847863493</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="2"/>
-        <v>0.2395768286862886</v>
+        <v>0.23916065137706999</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1276,25 +1282,25 @@
         <v>30</v>
       </c>
       <c r="B30" s="6">
-        <v>0.90899001109877919</v>
+        <v>0.90858623242042902</v>
       </c>
       <c r="C30" s="6">
-        <v>0.78780177890724268</v>
+        <v>0.78264568268821799</v>
       </c>
       <c r="D30" s="6">
-        <v>0.66051969823973178</v>
+        <v>0.660519698239732</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>0.12118823219153652</v>
+        <v>0.12594054973221103</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="1"/>
-        <v>0.1272820806675109</v>
+        <v>0.12212598444848599</v>
       </c>
       <c r="G30" s="6">
         <f>B30-D30</f>
-        <v>0.24847031285904742</v>
+        <v>0.24806653418069702</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1303,15 +1309,15 @@
       </c>
       <c r="B31" s="2">
         <f>MAX(B4:B30)</f>
-        <v>0.90899001109877919</v>
+        <v>0.90858623242042902</v>
       </c>
       <c r="C31" s="2">
         <f>MAX(C4:C30)</f>
-        <v>0.81521739130434789</v>
+        <v>0.80769230769230804</v>
       </c>
       <c r="D31" s="2">
         <f>MAX(D4:D30)</f>
-        <v>0.66754155730533682</v>
+        <v>0.66754155730533704</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -1321,15 +1327,15 @@
       </c>
       <c r="B32" s="2">
         <f>MIN(B4:B30)</f>
-        <v>0.65620155038759687</v>
+        <v>0.64676034348165501</v>
       </c>
       <c r="C32" s="2">
         <f>MIN(C4:C30)</f>
-        <v>0.53356481481481488</v>
+        <v>0.51639344262295095</v>
       </c>
       <c r="D32" s="2">
         <f>MIN(D4:D30)</f>
-        <v>0.44499999999999995</v>
+        <v>0.434108527131783</v>
       </c>
       <c r="G32" s="5"/>
     </row>
